--- a/teclado/modelo de BOM.xlsx
+++ b/teclado/modelo de BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/tudo/tec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{84B0A77F-A0E7-4BC8-BF0E-B11BB9D4D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD863CF-E9D7-4C9D-8A81-08B800727225}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{84B0A77F-A0E7-4BC8-BF0E-B11BB9D4D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB5B394-C3EB-558C-ADBF-A2A6338F3294}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -189,304 +189,61 @@
     <t>VITOR</t>
   </si>
   <si>
-    <t>Bill of Materials for Variant [Teclas not fitted] of BOM Document [teclado.BomDoc]</t>
-  </si>
-  <si>
-    <t>teclado.BomDoc</t>
-  </si>
-  <si>
-    <t>teclado.PrjPcb</t>
-  </si>
-  <si>
-    <t>Teclas not fitted</t>
-  </si>
-  <si>
-    <t>31/10/2025</t>
-  </si>
-  <si>
-    <t>14:54</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitors</t>
-  </si>
-  <si>
-    <t>Chip SMD Resistors</t>
-  </si>
-  <si>
-    <t>Crystals</t>
-  </si>
-  <si>
-    <t>Rectifier Diodes</t>
-  </si>
-  <si>
-    <t>Fuses</t>
-  </si>
-  <si>
-    <t>Switch Accessories</t>
-  </si>
-  <si>
-    <t>Microcontrollers</t>
-  </si>
-  <si>
-    <t>LDO Voltage Regulators</t>
-  </si>
-  <si>
-    <t>Tactile Switches</t>
-  </si>
-  <si>
-    <t>USB Connectors</t>
-  </si>
-  <si>
-    <t>TVS Diodes</t>
-  </si>
-  <si>
-    <t>Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
-    <t>Yageo Group</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>ECS International</t>
-  </si>
-  <si>
-    <t>MCC</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>Adafruit Industries</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>Richtek</t>
-  </si>
-  <si>
-    <t>Same Sky</t>
-  </si>
-  <si>
-    <t>Global Connector Technology</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>CL10B105KP8NNNC</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB104</t>
-  </si>
-  <si>
-    <t>CL10C200JB8NNNC</t>
-  </si>
-  <si>
-    <t>CRCW060310K0FKEA</t>
-  </si>
-  <si>
-    <t>GRM033R60J223KE01D</t>
-  </si>
-  <si>
-    <t>ECS-80-20-5PXDU-TR</t>
-  </si>
-  <si>
-    <t>1N4148WX-TP</t>
-  </si>
-  <si>
-    <t>M55342K06B1E50RS3</t>
-  </si>
-  <si>
-    <t>ERB-RD0R50X</t>
-  </si>
-  <si>
-    <t>STM32F103C8T6</t>
-  </si>
-  <si>
-    <t>LMK107BBJ106MALT</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1004V</t>
-  </si>
-  <si>
-    <t>ERA-2AEB512X</t>
-  </si>
-  <si>
-    <t>RT9193-33GB</t>
-  </si>
-  <si>
-    <t>TS18-5-15-SL-160-SMT-TR</t>
-  </si>
-  <si>
-    <t>USB4110-GF-A</t>
-  </si>
-  <si>
-    <t>USBLC6-2SC6</t>
-  </si>
-  <si>
-    <t>Case/Package</t>
-  </si>
-  <si>
-    <t>LQFP</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>10V 1uF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>16V 100nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>50V 20pF C0G ±5% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>100mW Thick Film Resistors ±1% ±100ppm/℃ 10kΩ 0603 Chip Resistor - Surface Mount ROHS</t>
-  </si>
-  <si>
-    <t>0201 22 nF 6.3 V ±10% Tolerance X5R SMT Multilayer Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>Crystal 8MHz ±30ppm (Tol) ±100ppm (Stability) 20pF FUND 60Ohm 2-Pin SMD T/R</t>
-  </si>
-  <si>
-    <t>Diode, Rectifier, Fast, Vr 100V, If 300MA, Pkg SOD-323, Vf 1V, Trr 4NS, Cj 4PF, Tj +150C</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.15W, 1500ohm, 50V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0705</t>
-  </si>
-  <si>
-    <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0402 1 X 0.5 X 0.39mm T/R UL/cUL</t>
-  </si>
-  <si>
-    <t>Kailh Switch Sockets For Mx-Compatible Mechanical Keys - 20 Pack |Adafruit 4958</t>
-  </si>
-  <si>
-    <t>MCU 32-bit STM32F1 ARM Cortex M3 RISC 64KB Flash 2.5V/3.3V 48-Pin LQFP Tray</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors (High dielectric type), 10V, 10 uF, ± 20 %, 0603, X5R, RoHS</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0603 1M Ohm 1% 1/10W ±100ppm/°C Molded SMD Punched Carrier T/R</t>
-  </si>
-  <si>
-    <t>Res Thin Film 0402 5.1K Ohm 0.1% 0.063W ±25ppm/°C Molded SMD Punched Carrier T/R</t>
-  </si>
-  <si>
-    <t>RT9193 Series 300 mA 3.3 V Ultra-Low Noise Ultra-Fast CMOS LDO Regulator-SC-70-5</t>
-  </si>
-  <si>
-    <t>Switch Tactile OFF (ON) SPST Round Button Gull Wing 0.05A 12VDC 80000Cycles 1.6N SMD T/R</t>
-  </si>
-  <si>
-    <t>USB Connector, 16 Contact(s), Male, Right Angle, Surface Mount Terminal, Locking, Receptacle</t>
-  </si>
-  <si>
-    <t>USBLC6 Series 2 Line 6 V Uni / Bi-Directional ESD Protection - SOT-23-6</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>DigiKey</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>1276-1946-1-ND</t>
-  </si>
-  <si>
-    <t>311-1088-1-ND</t>
-  </si>
-  <si>
-    <t>1276-1187-1-ND</t>
-  </si>
-  <si>
-    <t>541-10.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>490-3169-1-ND</t>
-  </si>
-  <si>
-    <t>XC1526CT-ND</t>
-  </si>
-  <si>
-    <t>1N4148WXTPMSCT-ND</t>
-  </si>
-  <si>
-    <t>541-M55342K06B1E50RS3CT-ND</t>
-  </si>
-  <si>
-    <t>P15122CT-ND</t>
-  </si>
-  <si>
-    <t>1528-4958-ND</t>
-  </si>
-  <si>
-    <t>497-6063-ND</t>
-  </si>
-  <si>
-    <t>587-3258-1-ND</t>
-  </si>
-  <si>
-    <t>P1.00MHCT-ND</t>
-  </si>
-  <si>
-    <t>P5.1KDCCT-ND</t>
-  </si>
-  <si>
-    <t>1028-1014-1-ND</t>
-  </si>
-  <si>
-    <t>2223-TS18-5-15-SL-160-SMT-TRCT-ND</t>
-  </si>
-  <si>
-    <t>2073-USB4110-GF-A-1-ND</t>
-  </si>
-  <si>
-    <t>497-5235-1-ND</t>
-  </si>
-  <si>
-    <t>Supplier Order Qty 1</t>
-  </si>
-  <si>
-    <t>Supplier Stock 1</t>
-  </si>
-  <si>
-    <t>Supplier Unit Price 1</t>
-  </si>
-  <si>
-    <t>Supplier Subtotal 1</t>
-  </si>
-  <si>
-    <t>Supplier Currency 1</t>
+    <t>Column=Category</t>
+  </si>
+  <si>
+    <t>Column=Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Column=Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>Column=Case/Package</t>
+  </si>
+  <si>
+    <t>Column=Description</t>
+  </si>
+  <si>
+    <t>Column=Quantity</t>
+  </si>
+  <si>
+    <t>Column=Supplier 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Order Qty 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Stock 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Currency 1</t>
+  </si>
+  <si>
+    <t>Field=DataSourceFileName</t>
+  </si>
+  <si>
+    <t>Field=ProjectFileName</t>
+  </si>
+  <si>
+    <t>Field=VariantName</t>
+  </si>
+  <si>
+    <t>Field=ReportDate</t>
+  </si>
+  <si>
+    <t>Field=ReportTime</t>
+  </si>
+  <si>
+    <t>Field=Title</t>
   </si>
 </sst>
 </file>
@@ -703,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1179,6 +936,64 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1189,7 +1004,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1452,7 +1267,37 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1460,6 +1305,9 @@
     <xf numFmtId="165" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1478,21 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1947,7 +1780,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1997,8 +1830,8 @@
         <v>19</v>
       </c>
       <c r="E2" s="19"/>
-      <c r="F2" s="101" t="s">
-        <v>51</v>
+      <c r="F2" s="105" t="s">
+        <v>69</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -2016,8 +1849,8 @@
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>52</v>
+      <c r="D3" s="98" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -2037,8 +1870,8 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="103" t="s">
-        <v>53</v>
+      <c r="D4" s="99" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="52" t="s">
@@ -2055,8 +1888,8 @@
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="104" t="s">
-        <v>54</v>
+      <c r="D5" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="15"/>
       <c r="G5" s="2" t="s">
@@ -2089,14 +1922,14 @@
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>56</v>
+      <c r="D7" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>40</v>
@@ -2110,16 +1943,16 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="103">
         <f ca="1">TODAY()</f>
-        <v>45961</v>
-      </c>
-      <c r="E8" s="94">
+        <v>45988</v>
+      </c>
+      <c r="E8" s="104">
         <f ca="1">NOW()</f>
-        <v>45961.621192592589</v>
+        <v>45988.932265509262</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2134,43 +1967,43 @@
         <v>22</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>125</v>
-      </c>
       <c r="J9" s="30" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2179,45 +2012,19 @@
         <f>ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="24">
-        <v>603</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="24">
-        <v>2</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="34">
-        <v>10</v>
-      </c>
-      <c r="L10" s="34">
-        <v>3977350</v>
-      </c>
-      <c r="M10" s="70">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N10" s="70">
-        <v>0.05</v>
-      </c>
-      <c r="O10" s="56" t="s">
-        <v>42</v>
-      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
@@ -2225,940 +2032,208 @@
         <f>ROW(B11) - ROW($B$9)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="26">
-        <v>603</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="26">
-        <v>6</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="35">
-        <v>10</v>
-      </c>
-      <c r="L11" s="35">
-        <v>6063458</v>
-      </c>
-      <c r="M11" s="71">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N11" s="71">
-        <v>0.06</v>
-      </c>
-      <c r="O11" s="57" t="s">
-        <v>42</v>
-      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
-      <c r="B12" s="23">
+      <c r="B12" s="91">
         <f>ROW(B12) - ROW($B$9)</f>
         <v>3</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="24">
-        <v>603</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="24">
-        <v>2</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="34">
-        <v>2</v>
-      </c>
-      <c r="L12" s="34">
-        <v>117173</v>
-      </c>
-      <c r="M12" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="56" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="41"/>
+      <c r="H13" s="40">
+        <f>SUM(H10:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="40">
+        <f>SUM(K10:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39">
+        <f>SUM(N10:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="67"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="107">
+        <f>N13</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="108"/>
+      <c r="N15" s="80" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="25">
-        <f>ROW(B13) - ROW($B$9)</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="26">
-        <v>603</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="26">
-        <v>3</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="35">
-        <v>10</v>
-      </c>
-      <c r="L13" s="35">
-        <v>1751008</v>
-      </c>
-      <c r="M13" s="71">
-        <v>0.03</v>
-      </c>
-      <c r="N13" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="O13" s="57" t="s">
+      <c r="O15" s="55"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="109">
+        <f>L15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="109"/>
+      <c r="N16" s="81" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="23">
-        <f>ROW(B14) - ROW($B$9)</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="24">
-        <v>201</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="34">
-        <v>1</v>
-      </c>
-      <c r="L14" s="34">
-        <v>1644231</v>
-      </c>
-      <c r="M14" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="N14" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="25">
-        <f>ROW(B15) - ROW($B$9)</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" s="35">
-        <v>1</v>
-      </c>
-      <c r="L15" s="35">
-        <v>9659</v>
-      </c>
-      <c r="M15" s="71">
-        <v>0.44</v>
-      </c>
-      <c r="N15" s="71">
-        <v>0.44</v>
-      </c>
-      <c r="O15" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="23">
-        <f>ROW(B16) - ROW($B$9)</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="24">
-        <v>15</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="34">
-        <v>15</v>
-      </c>
-      <c r="L16" s="34">
-        <v>965324</v>
-      </c>
-      <c r="M16" s="70">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="N16" s="70">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="O16" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="55"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49"/>
-      <c r="B17" s="25">
-        <f>ROW(B17) - ROW($B$9)</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="26">
-        <v>705</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="35">
-        <v>1</v>
-      </c>
-      <c r="L17" s="35">
-        <v>759</v>
-      </c>
-      <c r="M17" s="71">
-        <v>1.42</v>
-      </c>
-      <c r="N17" s="71">
-        <v>1.42</v>
-      </c>
-      <c r="O17" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="23">
-        <f>ROW(B18) - ROW($B$9)</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="24">
-        <v>402</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="34">
-        <v>1</v>
-      </c>
-      <c r="L18" s="34">
-        <v>236858</v>
-      </c>
-      <c r="M18" s="70">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N18" s="70">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="25">
-        <f>ROW(B19) - ROW($B$9)</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="26">
-        <v>4958</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="26">
-        <v>15</v>
-      </c>
-      <c r="I19" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="35">
-        <v>15</v>
-      </c>
-      <c r="L19" s="35">
-        <v>72</v>
-      </c>
-      <c r="M19" s="71">
-        <v>4.95</v>
-      </c>
-      <c r="N19" s="71">
-        <v>74.25</v>
-      </c>
-      <c r="O19" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="23">
-        <f>ROW(B20) - ROW($B$9)</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1</v>
-      </c>
-      <c r="I20" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="34">
-        <v>1</v>
-      </c>
-      <c r="L20" s="34">
-        <v>4432</v>
-      </c>
-      <c r="M20" s="70">
-        <v>6.08</v>
-      </c>
-      <c r="N20" s="70">
-        <v>6.08</v>
-      </c>
-      <c r="O20" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="25">
-        <f>ROW(B21) - ROW($B$9)</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="26">
-        <v>603</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="26">
-        <v>1</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="35">
-        <v>1</v>
-      </c>
-      <c r="L21" s="35">
-        <v>1166250</v>
-      </c>
-      <c r="M21" s="71">
-        <v>0.08</v>
-      </c>
-      <c r="N21" s="71">
-        <v>0.08</v>
-      </c>
-      <c r="O21" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="23">
-        <f>ROW(B22) - ROW($B$9)</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="24">
-        <v>603</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="24">
-        <v>1</v>
-      </c>
-      <c r="I22" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="34">
-        <v>1</v>
-      </c>
-      <c r="L22" s="34">
-        <v>265771</v>
-      </c>
-      <c r="M22" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="N22" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="O22" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="25">
-        <f>ROW(B23) - ROW($B$9)</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="26">
-        <v>402</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="26">
-        <v>2</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" s="35">
-        <v>2</v>
-      </c>
-      <c r="L23" s="35">
-        <v>5389</v>
-      </c>
-      <c r="M23" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="N23" s="71">
-        <v>0.2</v>
-      </c>
-      <c r="O23" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="23">
-        <f>ROW(B24) - ROW($B$9)</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="34">
-        <v>1</v>
-      </c>
-      <c r="L24" s="34">
-        <v>18961</v>
-      </c>
-      <c r="M24" s="70">
-        <v>0.41</v>
-      </c>
-      <c r="N24" s="70">
-        <v>0.41</v>
-      </c>
-      <c r="O24" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="25">
-        <f>ROW(B25) - ROW($B$9)</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="26">
-        <v>1</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="35">
-        <v>1</v>
-      </c>
-      <c r="L25" s="35">
-        <v>1211</v>
-      </c>
-      <c r="M25" s="71">
-        <v>0.19</v>
-      </c>
-      <c r="N25" s="71">
-        <v>0.19</v>
-      </c>
-      <c r="O25" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="23">
-        <f>ROW(B26) - ROW($B$9)</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="24">
-        <v>1</v>
-      </c>
-      <c r="I26" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="34">
-        <v>1</v>
-      </c>
-      <c r="L26" s="34">
-        <v>20026</v>
-      </c>
-      <c r="M26" s="70">
-        <v>1.24</v>
-      </c>
-      <c r="N26" s="70">
-        <v>1.24</v>
-      </c>
-      <c r="O26" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="25">
-        <f>ROW(B27) - ROW($B$9)</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="26">
-        <v>1</v>
-      </c>
-      <c r="I27" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="35">
-        <v>1</v>
-      </c>
-      <c r="L27" s="35">
-        <v>94406</v>
-      </c>
-      <c r="M27" s="71">
-        <v>0.36</v>
-      </c>
-      <c r="N27" s="71">
-        <v>0.36</v>
-      </c>
-      <c r="O27" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="41"/>
-      <c r="H28" s="40">
-        <f>SUM(H10:H27)</f>
-        <v>56</v>
-      </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="40">
-        <f>SUM(K10:K27)</f>
-        <v>75</v>
-      </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39">
-        <f>SUM(N10:N27)</f>
-        <v>86.684999999999988</v>
-      </c>
-      <c r="O28" s="58"/>
-    </row>
-    <row r="29" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="67"/>
-      <c r="O29" s="55"/>
-    </row>
-    <row r="30" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="96">
-        <f>N28</f>
-        <v>86.684999999999988</v>
-      </c>
-      <c r="M30" s="97"/>
-      <c r="N30" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="55"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="98">
-        <f>L30/H30</f>
-        <v>86.684999999999988</v>
-      </c>
-      <c r="M31" s="98"/>
-      <c r="N31" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="55"/>
-    </row>
-    <row r="32" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="O32" s="75"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="85" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I18" s="72">
         <v>5.43</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J18" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="99">
-        <f>L30*I33</f>
-        <v>470.69954999999993</v>
-      </c>
-      <c r="M33" s="100"/>
-      <c r="N33" s="74" t="s">
+      <c r="K18" s="73"/>
+      <c r="L18" s="110">
+        <f>L15*I18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="111"/>
+      <c r="N18" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="76"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="90"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I38" s="77"/>
+      <c r="O18" s="76"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="90"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="L10:L27">
+  <conditionalFormatting sqref="L10:L12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N27">
+  <conditionalFormatting sqref="N10:N12">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>

--- a/teclado/modelo de BOM.xlsx
+++ b/teclado/modelo de BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{84B0A77F-A0E7-4BC8-BF0E-B11BB9D4D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB5B394-C3EB-558C-ADBF-A2A6338F3294}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{84B0A77F-A0E7-4BC8-BF0E-B11BB9D4D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801D894D-2E74-4DED-8E33-C798637825B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -189,61 +189,310 @@
     <t>VITOR</t>
   </si>
   <si>
-    <t>Column=Category</t>
-  </si>
-  <si>
-    <t>Column=Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Column=Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>Column=Case/Package</t>
-  </si>
-  <si>
-    <t>Column=Description</t>
-  </si>
-  <si>
-    <t>Column=Quantity</t>
-  </si>
-  <si>
-    <t>Column=Supplier 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Order Qty 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Stock 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Unit Price 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Subtotal 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Currency 1</t>
-  </si>
-  <si>
-    <t>Field=DataSourceFileName</t>
-  </si>
-  <si>
-    <t>Field=ProjectFileName</t>
-  </si>
-  <si>
-    <t>Field=VariantName</t>
-  </si>
-  <si>
-    <t>Field=ReportDate</t>
-  </si>
-  <si>
-    <t>Field=ReportTime</t>
-  </si>
-  <si>
-    <t>Field=Title</t>
+    <t>Bill of Materials for Variant [Teclas not fitted] of BOM Document [teclado.BomDoc]</t>
+  </si>
+  <si>
+    <t>teclado.BomDoc</t>
+  </si>
+  <si>
+    <t>teclado.PrjPcb</t>
+  </si>
+  <si>
+    <t>Teclas not fitted</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitors</t>
+  </si>
+  <si>
+    <t>Chip SMD Resistors</t>
+  </si>
+  <si>
+    <t>Card Edge Connectors</t>
+  </si>
+  <si>
+    <t>Crystals</t>
+  </si>
+  <si>
+    <t>Rectifier Diodes</t>
+  </si>
+  <si>
+    <t>Fuses</t>
+  </si>
+  <si>
+    <t>Switch Accessories</t>
+  </si>
+  <si>
+    <t>Microcontrollers</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulators</t>
+  </si>
+  <si>
+    <t>USB Connectors</t>
+  </si>
+  <si>
+    <t>TVS Diodes</t>
+  </si>
+  <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>Yageo Group</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>ECS International</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Adafruit Industries</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>Richtek</t>
+  </si>
+  <si>
+    <t>Global Connector Technology</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>CL10B105KP8NNNC</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB104</t>
+  </si>
+  <si>
+    <t>CRCW060310K0FKEA</t>
+  </si>
+  <si>
+    <t>GRM033R60J223KE01D</t>
+  </si>
+  <si>
+    <t>CL05C330JB5NNNC</t>
+  </si>
+  <si>
+    <t>SBH11-PBPC-D10-ST-BK</t>
+  </si>
+  <si>
+    <t>ECS-80-20-5PXDU-TR</t>
+  </si>
+  <si>
+    <t>1N4148WX-TP</t>
+  </si>
+  <si>
+    <t>ERB-RD0R50X</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>LMK107BBJ106MALT</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP5101F</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1004V</t>
+  </si>
+  <si>
+    <t>RT9193-33GB</t>
+  </si>
+  <si>
+    <t>USB4110-GF-A</t>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>CR0402AJ/-000GAS</t>
+  </si>
+  <si>
+    <t>Case/Package</t>
+  </si>
+  <si>
+    <t>LQFP</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>10V 1uF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t>16V 100nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t>100mW Thick Film Resistors ±1% ±100ppm/℃ 10kΩ 0603 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>0201 22 nF 6.3 V ±10% Tolerance X5R SMT Multilayer Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 5% +Tol, 5% -Tol, C0G, 0+-30ppm/Celcius TC, 33pF, Surface Mount, 0402 inch</t>
+  </si>
+  <si>
+    <t>Conn Shrouded Header (4 Sides) HDR 20 POS 2.54mm Solder ST Top Entry Thru-Hole</t>
+  </si>
+  <si>
+    <t>Crystal 8MHz ±30ppm (Tol) ±100ppm (Stability) 20pF FUND 60Ohm 2-Pin SMD T/R</t>
+  </si>
+  <si>
+    <t>Diode, Rectifier, Fast, Vr 100V, If 300MA, Pkg SOD-323, Vf 1V, Trr 4NS, Cj 4PF, Tj +150C</t>
+  </si>
+  <si>
+    <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0402 1 X 0.5 X 0.39mm T/R UL/cUL</t>
+  </si>
+  <si>
+    <t>Kailh Switch Sockets For Mx-Compatible Mechanical Keys - 20 Pack |Adafruit 4958</t>
+  </si>
+  <si>
+    <t>MCU 32-bit STM32F1 ARM Cortex M3 RISC 64KB Flash 2.5V/3.3V 48-Pin LQFP Tray</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors (High dielectric type), 10V, 10 uF, ± 20 %, 0603, X5R, RoHS</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0402 5.1K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 1M Ohm 1% 1/10W ±100ppm/°C Molded SMD Punched Carrier T/R</t>
+  </si>
+  <si>
+    <t>RT9193 Series 300 mA 3.3 V Ultra-Low Noise Ultra-Fast CMOS LDO Regulator-SC-70-5</t>
+  </si>
+  <si>
+    <t>USB Connector, 16 Contact(s), Male, Right Angle, Surface Mount Terminal, Locking, Receptacle</t>
+  </si>
+  <si>
+    <t>USBLC6 Series 2 Line 6 V Uni / Bi-Directional ESD Protection - SOT-23-6</t>
+  </si>
+  <si>
+    <t>Zero Ohm Resistor, Jumper, 0402 [1005 Metric], Thick Film, 63 mW, 1 A, Surface Mount Device</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>1276-1946-1-ND</t>
+  </si>
+  <si>
+    <t>311-1088-1-ND</t>
+  </si>
+  <si>
+    <t>541-10.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>490-3169-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1272-1-ND</t>
+  </si>
+  <si>
+    <t>S9172-ND</t>
+  </si>
+  <si>
+    <t>XC1526CT-ND</t>
+  </si>
+  <si>
+    <t>1N4148WXTPMSCT-ND</t>
+  </si>
+  <si>
+    <t>P15122CT-ND</t>
+  </si>
+  <si>
+    <t>1528-4958-ND</t>
+  </si>
+  <si>
+    <t>497-6063-ND</t>
+  </si>
+  <si>
+    <t>587-3258-1-ND</t>
+  </si>
+  <si>
+    <t>2019-RK73H1ETTP5101FCT-ND</t>
+  </si>
+  <si>
+    <t>P1.00MHCT-ND</t>
+  </si>
+  <si>
+    <t>1028-1014-1-ND</t>
+  </si>
+  <si>
+    <t>2073-USB4110-GF-A-1-ND</t>
+  </si>
+  <si>
+    <t>497-5235-1-ND</t>
+  </si>
+  <si>
+    <t>CR0402AJ/-000GASCT-ND</t>
+  </si>
+  <si>
+    <t>Supplier Order Qty 1</t>
+  </si>
+  <si>
+    <t>Supplier Stock 1</t>
+  </si>
+  <si>
+    <t>Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>Supplier Currency 1</t>
   </si>
 </sst>
 </file>
@@ -460,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -938,64 +1187,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1004,7 +1195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1267,37 +1458,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1305,9 +1466,6 @@
     <xf numFmtId="165" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1326,6 +1484,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1484,10 +1657,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,7 +1949,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1830,8 +1999,8 @@
         <v>19</v>
       </c>
       <c r="E2" s="19"/>
-      <c r="F2" s="105" t="s">
-        <v>69</v>
+      <c r="F2" s="101" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1849,8 +2018,8 @@
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="98" t="s">
-        <v>64</v>
+      <c r="D3" s="102" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -1870,8 +2039,8 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="99" t="s">
-        <v>65</v>
+      <c r="D4" s="103" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="52" t="s">
@@ -1888,8 +2057,8 @@
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>66</v>
+      <c r="D5" s="104" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="15"/>
       <c r="G5" s="2" t="s">
@@ -1922,14 +2091,14 @@
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="101" t="s">
-        <v>68</v>
+      <c r="D7" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>40</v>
@@ -1943,16 +2112,16 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="93">
         <f ca="1">TODAY()</f>
-        <v>45988</v>
-      </c>
-      <c r="E8" s="104">
+        <v>45989</v>
+      </c>
+      <c r="E8" s="94">
         <f ca="1">NOW()</f>
-        <v>45988.932265509262</v>
+        <v>45989.417236226851</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -1967,43 +2136,43 @@
         <v>22</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,19 +2181,45 @@
         <f>ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="56"/>
+      <c r="C10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="24">
+        <v>603</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="24">
+        <v>2</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="34">
+        <v>10</v>
+      </c>
+      <c r="L10" s="34">
+        <v>3746864</v>
+      </c>
+      <c r="M10" s="70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N10" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
@@ -2032,208 +2227,938 @@
         <f>ROW(B11) - ROW($B$9)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="57"/>
+      <c r="C11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="26">
+        <v>603</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="26">
+        <v>7</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="35">
+        <v>10</v>
+      </c>
+      <c r="L11" s="35">
+        <v>5852215</v>
+      </c>
+      <c r="M11" s="71">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
-      <c r="B12" s="91">
+      <c r="B12" s="23">
         <f>ROW(B12) - ROW($B$9)</f>
         <v>3</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="97"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="24">
+        <v>603</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="24">
+        <v>8</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="34">
+        <v>10</v>
+      </c>
+      <c r="L12" s="34">
+        <v>3292636</v>
+      </c>
+      <c r="M12" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="N12" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="41"/>
-      <c r="H13" s="40">
-        <f>SUM(H10:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="40">
-        <f>SUM(K10:K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39">
-        <f>SUM(N10:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="58"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <f>ROW(B13) - ROW($B$9)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="26">
+        <v>201</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="35">
+        <v>1</v>
+      </c>
+      <c r="L13" s="35">
+        <v>1612421</v>
+      </c>
+      <c r="M13" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="23">
+        <f>ROW(B14) - ROW($B$9)</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="24">
+        <v>402</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="34">
+        <v>10</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3173526</v>
+      </c>
+      <c r="M14" s="70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="O14" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="25">
+        <f>ROW(B15) - ROW($B$9)</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1</v>
+      </c>
+      <c r="L15" s="35">
+        <v>30038</v>
+      </c>
+      <c r="M15" s="71">
+        <v>0.41</v>
+      </c>
+      <c r="N15" s="71">
+        <v>0.41</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="23">
+        <f>ROW(B16) - ROW($B$9)</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34">
+        <v>4143</v>
+      </c>
+      <c r="M16" s="70">
+        <v>0.44</v>
+      </c>
+      <c r="N16" s="70">
+        <v>0.44</v>
+      </c>
+      <c r="O16" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="25">
+        <f>ROW(B17) - ROW($B$9)</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="26">
+        <v>15</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="35">
+        <v>15</v>
+      </c>
+      <c r="L17" s="35">
+        <v>1060154</v>
+      </c>
+      <c r="M17" s="71">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N17" s="71">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="23">
+        <f>ROW(B18) - ROW($B$9)</f>
+        <v>9</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="24">
+        <v>402</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="34">
+        <v>1</v>
+      </c>
+      <c r="L18" s="34">
+        <v>236143</v>
+      </c>
+      <c r="M18" s="70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N18" s="70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="25">
+        <f>ROW(B19) - ROW($B$9)</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="26">
+        <v>4958</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="26">
+        <v>15</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="35">
+        <v>15</v>
+      </c>
+      <c r="L19" s="35">
+        <v>80</v>
+      </c>
+      <c r="M19" s="71">
+        <v>4.95</v>
+      </c>
+      <c r="N19" s="71">
+        <v>74.25</v>
+      </c>
+      <c r="O19" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="23">
+        <f>ROW(B20) - ROW($B$9)</f>
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="34">
+        <v>1</v>
+      </c>
+      <c r="L20" s="34">
+        <v>3958</v>
+      </c>
+      <c r="M20" s="70">
+        <v>6.08</v>
+      </c>
+      <c r="N20" s="70">
+        <v>6.08</v>
+      </c>
+      <c r="O20" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="25">
+        <f>ROW(B21) - ROW($B$9)</f>
+        <v>12</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="26">
+        <v>603</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="35">
+        <v>1</v>
+      </c>
+      <c r="L21" s="35">
+        <v>926928</v>
+      </c>
+      <c r="M21" s="71">
+        <v>0.08</v>
+      </c>
+      <c r="N21" s="71">
+        <v>0.08</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="23">
+        <f>ROW(B22) - ROW($B$9)</f>
+        <v>13</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="24">
+        <v>402</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="24">
+        <v>2</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="34">
+        <v>2</v>
+      </c>
+      <c r="L22" s="34">
+        <v>145862</v>
+      </c>
+      <c r="M22" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="25">
+        <f>ROW(B23) - ROW($B$9)</f>
+        <v>14</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="26">
+        <v>603</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="35">
+        <v>1</v>
+      </c>
+      <c r="L23" s="35">
+        <v>167439</v>
+      </c>
+      <c r="M23" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="N23" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+      <c r="B24" s="23">
+        <f>ROW(B24) - ROW($B$9)</f>
+        <v>15</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="34">
+        <v>1</v>
+      </c>
+      <c r="L24" s="34">
+        <v>17527</v>
+      </c>
+      <c r="M24" s="70">
+        <v>0.41</v>
+      </c>
+      <c r="N24" s="70">
+        <v>0.41</v>
+      </c>
+      <c r="O24" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="25">
+        <f>ROW(B25) - ROW($B$9)</f>
+        <v>16</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="35">
+        <v>1</v>
+      </c>
+      <c r="L25" s="35">
+        <v>27334</v>
+      </c>
+      <c r="M25" s="71">
+        <v>1.24</v>
+      </c>
+      <c r="N25" s="71">
+        <v>1.24</v>
+      </c>
+      <c r="O25" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="23">
+        <f>ROW(B26) - ROW($B$9)</f>
+        <v>17</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="34">
+        <v>1</v>
+      </c>
+      <c r="L26" s="34">
+        <v>64082</v>
+      </c>
+      <c r="M26" s="70">
+        <v>0.36</v>
+      </c>
+      <c r="N26" s="70">
+        <v>0.36</v>
+      </c>
+      <c r="O26" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="25">
+        <f>ROW(B27) - ROW($B$9)</f>
+        <v>18</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="35">
+        <v>2</v>
+      </c>
+      <c r="L27" s="35">
+        <v>158716</v>
+      </c>
+      <c r="M27" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="O27" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="41"/>
+      <c r="H28" s="40">
+        <f>SUM(H10:H27)</f>
+        <v>63</v>
+      </c>
+      <c r="J28" s="36"/>
+      <c r="K28" s="40">
+        <f>SUM(K10:K27)</f>
+        <v>84</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39">
+        <f>SUM(N10:N27)</f>
+        <v>85.514999999999986</v>
+      </c>
+      <c r="O28" s="58"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="43" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="67"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="79" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="67"/>
+      <c r="O29" s="55"/>
+    </row>
+    <row r="30" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I30" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J30" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="107">
-        <f>N13</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="108"/>
-      <c r="N15" s="80" t="s">
+      <c r="L30" s="96">
+        <f>N28</f>
+        <v>85.514999999999986</v>
+      </c>
+      <c r="M30" s="97"/>
+      <c r="N30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="55"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="42" t="s">
+      <c r="O30" s="55"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="49"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="109">
-        <f>L15/H15</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="109"/>
-      <c r="N16" s="81" t="s">
+      <c r="K31" s="6"/>
+      <c r="L31" s="98">
+        <f>L30/H30</f>
+        <v>85.514999999999986</v>
+      </c>
+      <c r="M31" s="98"/>
+      <c r="N31" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="55"/>
-    </row>
-    <row r="17" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="85" t="s">
+      <c r="O31" s="55"/>
+    </row>
+    <row r="32" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="O32" s="75"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="89"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I33" s="72">
         <v>5.43</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J33" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="110">
-        <f>L15*I18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="111"/>
-      <c r="N18" s="74" t="s">
+      <c r="K33" s="73"/>
+      <c r="L33" s="99">
+        <f>L30*I33</f>
+        <v>464.34644999999989</v>
+      </c>
+      <c r="M33" s="100"/>
+      <c r="N33" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="76"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="90"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="77"/>
+      <c r="O33" s="76"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="90"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I38" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="L10:L12">
+  <conditionalFormatting sqref="L10:L27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N12">
+  <conditionalFormatting sqref="N10:N27">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
